--- a/Dokumenter/BurnDownChart.xlsx
+++ b/Dokumenter/BurnDownChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\Desktop\Eksamen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\source\repos\Eksamensprojektet\Dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33F0740C-B5A0-40E2-A080-30E938C32DAD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD44D535-5655-4DE6-9D4C-2868A62C0228}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7440" windowHeight="6720" xr2:uid="{5241CD3B-7CDF-4A9D-BDBF-86F4A929246A}"/>
   </bookViews>
@@ -310,31 +310,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,31 +412,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,6 +684,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="469726760"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1729,7 +1682,7 @@
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1718,7 @@
         <v>250</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1773,95 +1726,47 @@
         <v>43207</v>
       </c>
       <c r="C4">
-        <v>240</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>43208</v>
       </c>
-      <c r="C5">
-        <v>233</v>
-      </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>43209</v>
       </c>
-      <c r="C6">
-        <v>210</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
-      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>43210</v>
       </c>
-      <c r="C7">
-        <v>176</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>43213</v>
       </c>
-      <c r="C8">
-        <v>163</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>43214</v>
       </c>
-      <c r="C9">
-        <v>134</v>
-      </c>
-      <c r="E9">
-        <v>34</v>
-      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>43215</v>
       </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>43216</v>
       </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>43217</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>

--- a/Dokumenter/BurnDownChart.xlsx
+++ b/Dokumenter/BurnDownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\source\repos\Eksamensprojektet\Dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD44D535-5655-4DE6-9D4C-2868A62C0228}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40971DF8-873D-4B2F-B438-2F4EEF39F0D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7440" windowHeight="6720" xr2:uid="{5241CD3B-7CDF-4A9D-BDBF-86F4A929246A}"/>
   </bookViews>
@@ -312,6 +312,9 @@
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -413,6 +416,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1688,7 @@
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,10 +1734,16 @@
       <c r="C4">
         <v>205</v>
       </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>43208</v>
+      </c>
+      <c r="C5">
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">

--- a/Dokumenter/BurnDownChart.xlsx
+++ b/Dokumenter/BurnDownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\source\repos\Eksamensprojektet\Dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40971DF8-873D-4B2F-B438-2F4EEF39F0D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A308B2FB-B3F1-405F-9934-E050105C854F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7440" windowHeight="6720" xr2:uid="{5241CD3B-7CDF-4A9D-BDBF-86F4A929246A}"/>
   </bookViews>
@@ -315,6 +315,9 @@
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -419,6 +422,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,7 +1694,7 @@
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,10 +1751,16 @@
       <c r="C5">
         <v>175</v>
       </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>43209</v>
+      </c>
+      <c r="C6">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">

--- a/Dokumenter/BurnDownChart.xlsx
+++ b/Dokumenter/BurnDownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\source\repos\Eksamensprojektet\Dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A308B2FB-B3F1-405F-9934-E050105C854F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A3598-34B1-4382-A01F-335D2EAFD6AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7440" windowHeight="6720" xr2:uid="{5241CD3B-7CDF-4A9D-BDBF-86F4A929246A}"/>
   </bookViews>
@@ -316,7 +316,13 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,7 +430,13 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>155</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,7 +1706,7 @@
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1764,7 @@
         <v>175</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1760,17 +1772,29 @@
         <v>43209</v>
       </c>
       <c r="C6">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>43210</v>
       </c>
+      <c r="C7">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>43213</v>
+      </c>
+      <c r="C8">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">

--- a/Dokumenter/BurnDownChart.xlsx
+++ b/Dokumenter/BurnDownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\source\repos\Eksamensprojektet\Dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A3598-34B1-4382-A01F-335D2EAFD6AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF294034-C5AE-4E25-8142-629BF2EEA424}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7440" windowHeight="6720" xr2:uid="{5241CD3B-7CDF-4A9D-BDBF-86F4A929246A}"/>
   </bookViews>
@@ -310,19 +310,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,10 +427,10 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>205</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>150</c:v>
@@ -437,6 +440,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,7 +1712,7 @@
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1748,7 @@
         <v>250</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1750,7 +1756,7 @@
         <v>43207</v>
       </c>
       <c r="C4">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -1761,10 +1767,10 @@
         <v>43208</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1796,10 +1802,16 @@
       <c r="C8">
         <v>130</v>
       </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>43214</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">

--- a/Dokumenter/BurnDownChart.xlsx
+++ b/Dokumenter/BurnDownChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\source\repos\Eksamensprojektet\Dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF294034-C5AE-4E25-8142-629BF2EEA424}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B715C8-37CE-4222-B939-5FA3F22B39BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7440" windowHeight="6720" xr2:uid="{5241CD3B-7CDF-4A9D-BDBF-86F4A929246A}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7440" windowHeight="6720" xr2:uid="{5241CD3B-7CDF-4A9D-BDBF-86F4A929246A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$B$3:$B$12</c:f>
+              <c:f>'Ark1'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43206</c:v>
                 </c:pt>
@@ -299,16 +299,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$E$3:$E$12</c:f>
+              <c:f>'Ark1'!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -322,10 +325,22 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,10 +395,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$B$3:$B$12</c:f>
+              <c:f>'Ark1'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43206</c:v>
                 </c:pt>
@@ -413,16 +428,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$C$3:$C$12</c:f>
+              <c:f>'Ark1'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>250</c:v>
                 </c:pt>
@@ -439,10 +457,22 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,10 +512,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$B$3:$B$12</c:f>
+              <c:f>'Ark1'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43206</c:v>
                 </c:pt>
@@ -515,20 +545,23 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$D$3:$D$12</c:f>
+              <c:f>'Ark1'!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1400,8 +1433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F7514ECB-3A46-472C-8DDD-5BF8050689F5}" name="Tabel5" displayName="Tabel5" ref="B2:E12" totalsRowShown="0">
-  <autoFilter ref="B2:E12" xr:uid="{414E83C0-8C5B-4834-8530-532B10E862A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F7514ECB-3A46-472C-8DDD-5BF8050689F5}" name="Tabel5" displayName="Tabel5" ref="B2:E13" totalsRowShown="0">
+  <autoFilter ref="B2:E13" xr:uid="{414E83C0-8C5B-4834-8530-532B10E862A2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4302FE24-99C4-46E2-ABDC-F1CECA0DDC8E}" name="Dato" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{044DB249-83DA-47B1-BF1A-C1E42C0AFF51}" name="Aktuel"/>
@@ -1712,7 +1745,7 @@
   <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1825,7 @@
         <v>135</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1800,10 +1833,10 @@
         <v>43213</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -1811,24 +1844,53 @@
         <v>43214</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>43215</v>
       </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>43216</v>
       </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>43217</v>
       </c>
-      <c r="D12">
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>43218</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
